--- a/Italy - Rome/Computations.xlsx
+++ b/Italy - Rome/Computations.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tessa's Computer\Dropbox\Cirrolytix\Rome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abyss Web Server\htdocs\gqueers_space_apps\Italy - Rome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97E12989-AE21-40F2-BE14-1699427B0557}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855960A6-6396-4604-8D53-A48157438532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1215" windowWidth="17415" windowHeight="13440" xr2:uid="{73689D7F-F3ED-4E53-AFFB-74B56113E0CD}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="17415" windowHeight="11445" activeTab="1" xr2:uid="{73689D7F-F3ED-4E53-AFFB-74B56113E0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="GDP" sheetId="2" r:id="rId2"/>
+    <sheet name="night light" sheetId="3" r:id="rId2"/>
+    <sheet name="GDP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -809,6 +810,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1769073391"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1749,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E6E4DC-7B51-49A0-BDA0-295A27F565BE}">
   <dimension ref="A5:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,6 +3415,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9839364B-9910-4FA5-B557-1ADA34521FF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28EC1E-D52E-4C44-A180-37C15D438BF3}">
   <dimension ref="A1:C17"/>
   <sheetViews>
